--- a/FlickerFaces.data/FF4_5/FF4_5_MarkupXLS_2000.xlsx
+++ b/FlickerFaces.data/FF4_5/FF4_5_MarkupXLS_2000.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="16">
   <si>
     <t>Tr</t>
   </si>
@@ -81,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -91,14 +91,22 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -122,28 +130,28 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
     </row>
@@ -151,7 +159,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E2">
@@ -171,7 +179,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3">
@@ -197,7 +205,7 @@
       <c r="C4">
         <v>23126</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E4">
@@ -223,7 +231,7 @@
       <c r="C5">
         <v>26460</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E5">
@@ -249,7 +257,7 @@
       <c r="C6">
         <v>34693</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E6">
@@ -275,7 +283,7 @@
       <c r="C7">
         <v>38026</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E7">
@@ -301,7 +309,7 @@
       <c r="C8">
         <v>45693</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E8">
@@ -327,7 +335,7 @@
       <c r="C9">
         <v>49025</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E9">
@@ -353,7 +361,7 @@
       <c r="C10">
         <v>56075</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E10">
@@ -379,7 +387,7 @@
       <c r="C11">
         <v>59409</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E11">
@@ -399,7 +407,7 @@
       <c r="A12">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E12">
@@ -419,7 +427,7 @@
       <c r="A13">
         <v>6</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E13">
@@ -445,7 +453,7 @@
       <c r="C14">
         <v>84491</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E14">
@@ -471,7 +479,7 @@
       <c r="C15">
         <v>87824</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E15">
@@ -497,7 +505,7 @@
       <c r="C16">
         <v>97991</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E16">
@@ -523,7 +531,7 @@
       <c r="C17">
         <v>101324</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E17">
@@ -549,7 +557,7 @@
       <c r="C18">
         <v>109007</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E18">
@@ -575,7 +583,7 @@
       <c r="C19">
         <v>112340</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E19">
@@ -612,7 +620,7 @@
       <c r="A21">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E21">
@@ -632,14 +640,20 @@
       <c r="A22">
         <v>11</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="B22">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>138490</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -652,14 +666,20 @@
       <c r="A23">
         <v>11</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="B23">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>141823</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -673,12 +693,12 @@
         <v>12</v>
       </c>
       <c r="B24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24">
         <v>150389</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E24">
@@ -699,12 +719,12 @@
         <v>12</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>153721</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E25">
@@ -725,12 +745,12 @@
         <v>13</v>
       </c>
       <c r="B26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>163438</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E26">
@@ -751,12 +771,12 @@
         <v>13</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27">
         <v>166772</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E27">
@@ -777,12 +797,12 @@
         <v>14</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
         <v>177437</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E28">
@@ -803,12 +823,12 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29">
         <v>180771</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E29">
@@ -829,12 +849,12 @@
         <v>15</v>
       </c>
       <c r="B30">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30">
         <v>191770</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E30">
@@ -855,12 +875,12 @@
         <v>15</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C31">
         <v>195104</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E31">
@@ -881,12 +901,12 @@
         <v>16</v>
       </c>
       <c r="B32">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32">
         <v>203587</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E32">
@@ -907,12 +927,12 @@
         <v>16</v>
       </c>
       <c r="B33">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C33">
         <v>206920</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E33">
@@ -933,12 +953,12 @@
         <v>17</v>
       </c>
       <c r="B34">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C34">
         <v>216553</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E34">
@@ -959,12 +979,12 @@
         <v>17</v>
       </c>
       <c r="B35">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35">
         <v>219886</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E35">
@@ -984,7 +1004,7 @@
       <c r="A36">
         <v>18</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E36">
@@ -1004,7 +1024,7 @@
       <c r="A37">
         <v>18</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E37">
@@ -1025,12 +1045,12 @@
         <v>19</v>
       </c>
       <c r="B38">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>241836</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E38">
@@ -1051,12 +1071,12 @@
         <v>19</v>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>245169</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E39">
@@ -1093,7 +1113,7 @@
       <c r="A41">
         <v>20</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E41">
@@ -1113,7 +1133,7 @@
       <c r="A42">
         <v>21</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E42">
@@ -1151,12 +1171,12 @@
         <v>22</v>
       </c>
       <c r="B44">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C44">
         <v>292717</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E44">
@@ -1177,12 +1197,12 @@
         <v>22</v>
       </c>
       <c r="B45">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45">
         <v>296051</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E45">
@@ -1203,12 +1223,12 @@
         <v>23</v>
       </c>
       <c r="B46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <v>304618</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E46">
@@ -1229,12 +1249,12 @@
         <v>23</v>
       </c>
       <c r="B47">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>307950</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E47">
@@ -1255,12 +1275,12 @@
         <v>24</v>
       </c>
       <c r="B48">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>317033</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E48">
@@ -1281,12 +1301,12 @@
         <v>24</v>
       </c>
       <c r="B49">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C49">
         <v>320367</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E49">
@@ -1307,12 +1327,12 @@
         <v>25</v>
       </c>
       <c r="B50">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C50">
         <v>330300</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E50">
@@ -1333,12 +1353,12 @@
         <v>25</v>
       </c>
       <c r="B51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C51">
         <v>333633</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E51">
@@ -1359,12 +1379,12 @@
         <v>26</v>
       </c>
       <c r="B52">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C52">
         <v>345149</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E52">
@@ -1385,12 +1405,12 @@
         <v>26</v>
       </c>
       <c r="B53">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C53">
         <v>348483</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E53">
@@ -1411,12 +1431,12 @@
         <v>27</v>
       </c>
       <c r="B54">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C54">
         <v>358082</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E54">
@@ -1437,12 +1457,12 @@
         <v>27</v>
       </c>
       <c r="B55">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C55">
         <v>361416</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E55">
@@ -1463,12 +1483,12 @@
         <v>28</v>
       </c>
       <c r="B56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>370866</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E56">
@@ -1489,12 +1509,12 @@
         <v>28</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C57">
         <v>374199</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E57">
@@ -1515,12 +1535,12 @@
         <v>29</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C58">
         <v>387782</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="D58" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E58">
@@ -1541,12 +1561,12 @@
         <v>29</v>
       </c>
       <c r="B59">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C59">
         <v>391115</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E59">
@@ -1567,12 +1587,12 @@
         <v>30</v>
       </c>
       <c r="B60">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60">
         <v>399815</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E60">
@@ -1593,12 +1613,12 @@
         <v>30</v>
       </c>
       <c r="B61">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61">
         <v>403148</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E61">
@@ -1619,12 +1639,12 @@
         <v>31</v>
       </c>
       <c r="B62">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>416148</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E62">
@@ -1645,12 +1665,12 @@
         <v>31</v>
       </c>
       <c r="B63">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C63">
         <v>419481</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E63">
@@ -1671,12 +1691,12 @@
         <v>32</v>
       </c>
       <c r="B64">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>426481</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E64">
@@ -1697,12 +1717,12 @@
         <v>32</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>429814</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E65">
@@ -1723,12 +1743,12 @@
         <v>33</v>
       </c>
       <c r="B66">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C66">
         <v>440163</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E66">
@@ -1749,12 +1769,12 @@
         <v>33</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67">
         <v>443497</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E67">
@@ -1775,12 +1795,12 @@
         <v>34</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68">
         <v>451980</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D68" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E68">
@@ -1801,12 +1821,12 @@
         <v>34</v>
       </c>
       <c r="B69">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C69">
         <v>455314</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E69">
@@ -1827,12 +1847,12 @@
         <v>35</v>
       </c>
       <c r="B70">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C70">
         <v>463630</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E70">
@@ -1853,12 +1873,12 @@
         <v>35</v>
       </c>
       <c r="B71">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C71">
         <v>466963</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E71">
@@ -1879,12 +1899,12 @@
         <v>36</v>
       </c>
       <c r="B72">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C72">
         <v>475396</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D72" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E72">
@@ -1905,12 +1925,12 @@
         <v>36</v>
       </c>
       <c r="B73">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C73">
         <v>478729</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D73" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E73">
@@ -1930,7 +1950,7 @@
       <c r="A74">
         <v>37</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="D74" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E74">
@@ -1950,7 +1970,7 @@
       <c r="A75">
         <v>37</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="D75" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E75">
@@ -1971,12 +1991,12 @@
         <v>38</v>
       </c>
       <c r="B76">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C76">
         <v>499479</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="D76" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E76">
@@ -1997,12 +2017,12 @@
         <v>38</v>
       </c>
       <c r="B77">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C77">
         <v>502813</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D77" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E77">
@@ -2023,12 +2043,12 @@
         <v>39</v>
       </c>
       <c r="B78">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C78">
         <v>511095</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D78" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E78">
@@ -2049,12 +2069,12 @@
         <v>39</v>
       </c>
       <c r="B79">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C79">
         <v>514428</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D79" s="5" t="s">
         <v>11</v>
       </c>
       <c r="E79">
@@ -2075,12 +2095,12 @@
         <v>40</v>
       </c>
       <c r="B80">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C80">
         <v>522195</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D80" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E80">
@@ -2101,12 +2121,12 @@
         <v>40</v>
       </c>
       <c r="B81">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81">
         <v>525528</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="D81" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E81">
